--- a/data/mp_charachteristics.xlsx
+++ b/data/mp_charachteristics.xlsx
@@ -1206,7 +1206,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.000000_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,21 +1226,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1393,12 +1378,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1755,133 +1734,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1898,25 +1877,25 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,13 +1907,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,11 +1919,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2485,7 +2464,7 @@
   <dimension ref="A1:Q373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q1"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2589,7 +2568,7 @@
       <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="6">
@@ -2642,7 +2621,7 @@
       <c r="O3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="6">
@@ -2695,7 +2674,7 @@
       <c r="O4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q4" s="6">
@@ -2748,7 +2727,7 @@
       <c r="O5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="6">
@@ -2801,7 +2780,7 @@
       <c r="O6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="6">
@@ -2854,7 +2833,7 @@
       <c r="O7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="6">
@@ -2905,7 +2884,7 @@
       <c r="O8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q8" s="6">
@@ -2916,7 +2895,7 @@
       <c r="A9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2950,13 +2929,13 @@
       <c r="M9" s="10">
         <v>4</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="20" t="s">
         <v>63</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="6">
@@ -2967,7 +2946,7 @@
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3005,7 +2984,7 @@
       <c r="O10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="6">
@@ -3016,7 +2995,7 @@
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3058,7 +3037,7 @@
       <c r="O11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="6">
@@ -3069,7 +3048,7 @@
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3111,7 +3090,7 @@
       <c r="O12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q12" s="6">
@@ -3122,7 +3101,7 @@
       <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3164,7 +3143,7 @@
       <c r="O13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="6">
@@ -3175,7 +3154,7 @@
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3217,7 +3196,7 @@
       <c r="O14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q14" s="6">
@@ -3228,7 +3207,7 @@
       <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3270,7 +3249,7 @@
       <c r="O15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q15" s="6">
@@ -3321,7 +3300,7 @@
       <c r="O16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="6">
@@ -3370,7 +3349,7 @@
       <c r="O17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q17" s="6">
@@ -3419,7 +3398,7 @@
       <c r="O18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q18" s="6">
@@ -3468,7 +3447,7 @@
       <c r="O19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="6">
@@ -3517,7 +3496,7 @@
       <c r="O20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="6">
@@ -3568,7 +3547,7 @@
       <c r="O21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="6">
@@ -3619,7 +3598,7 @@
       <c r="O22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q22" s="6">
@@ -3670,7 +3649,7 @@
       <c r="O23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="6">
@@ -3721,7 +3700,7 @@
       <c r="O24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="P24" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="6">
@@ -3772,7 +3751,7 @@
       <c r="O25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="6">
@@ -3821,7 +3800,7 @@
       <c r="O26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P26" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q26" s="6">
@@ -3870,7 +3849,7 @@
       <c r="O27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="17" t="s">
+      <c r="P27" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q27" s="6">
@@ -3921,7 +3900,7 @@
       <c r="O28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q28" s="6">
@@ -3972,7 +3951,7 @@
       <c r="O29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="P29" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="6">
@@ -4023,7 +4002,7 @@
       <c r="O30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q30" s="6">
@@ -4074,7 +4053,7 @@
       <c r="O31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="P31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q31" s="6">
@@ -4125,7 +4104,7 @@
       <c r="O32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q32" s="6">
@@ -4176,7 +4155,7 @@
       <c r="O33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P33" s="17" t="s">
+      <c r="P33" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q33" s="6">
@@ -4227,7 +4206,7 @@
       <c r="O34" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P34" s="17" t="s">
+      <c r="P34" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q34" s="6">
@@ -4278,7 +4257,7 @@
       <c r="O35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P35" s="17" t="s">
+      <c r="P35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q35" s="6">
@@ -4329,7 +4308,7 @@
       <c r="O36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P36" s="17" t="s">
+      <c r="P36" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q36" s="6">
@@ -4380,7 +4359,7 @@
       <c r="O37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="17" t="s">
+      <c r="P37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q37" s="6">
@@ -4431,7 +4410,7 @@
       <c r="O38" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="P38" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q38" s="6">
@@ -4482,7 +4461,7 @@
       <c r="O39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P39" s="17" t="s">
+      <c r="P39" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="6">
@@ -4533,7 +4512,7 @@
       <c r="O40" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P40" s="17" t="s">
+      <c r="P40" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="6">
@@ -4584,7 +4563,7 @@
       <c r="O41" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P41" s="17" t="s">
+      <c r="P41" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q41" s="6">
@@ -4635,7 +4614,7 @@
       <c r="O42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="17" t="s">
+      <c r="P42" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q42" s="6">
@@ -4686,7 +4665,7 @@
       <c r="O43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P43" s="17" t="s">
+      <c r="P43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q43" s="6">
@@ -4735,7 +4714,7 @@
       <c r="O44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="P44" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="6">
@@ -4784,7 +4763,7 @@
       <c r="O45" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P45" s="17" t="s">
+      <c r="P45" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q45" s="6">
@@ -4835,7 +4814,7 @@
       <c r="O46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P46" s="17" t="s">
+      <c r="P46" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q46" s="6">
@@ -4886,7 +4865,7 @@
       <c r="O47" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P47" s="17" t="s">
+      <c r="P47" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q47" s="6">
@@ -4937,7 +4916,7 @@
       <c r="O48" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P48" s="17" t="s">
+      <c r="P48" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q48" s="6">
@@ -4988,7 +4967,7 @@
       <c r="O49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P49" s="17" t="s">
+      <c r="P49" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q49" s="6">
@@ -5039,7 +5018,7 @@
       <c r="O50" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P50" s="17" t="s">
+      <c r="P50" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q50" s="6">
@@ -5090,7 +5069,7 @@
       <c r="O51" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P51" s="17" t="s">
+      <c r="P51" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q51" s="6">
@@ -5141,7 +5120,7 @@
       <c r="O52" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P52" s="17" t="s">
+      <c r="P52" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q52" s="6">
@@ -5192,7 +5171,7 @@
       <c r="O53" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P53" s="17" t="s">
+      <c r="P53" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="6">
@@ -5241,7 +5220,7 @@
       <c r="O54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P54" s="17" t="s">
+      <c r="P54" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q54" s="6">
@@ -5292,7 +5271,7 @@
       <c r="O55" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P55" s="17" t="s">
+      <c r="P55" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q55" s="6">
@@ -5343,7 +5322,7 @@
       <c r="O56" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P56" s="17" t="s">
+      <c r="P56" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q56" s="6">
@@ -5394,7 +5373,7 @@
       <c r="O57" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="P57" s="17" t="s">
+      <c r="P57" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q57" s="6">
@@ -5445,7 +5424,7 @@
       <c r="O58" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="P58" s="17" t="s">
+      <c r="P58" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="6">
@@ -5496,7 +5475,7 @@
       <c r="O59" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P59" s="17" t="s">
+      <c r="P59" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="6">
@@ -5547,7 +5526,7 @@
       <c r="O60" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P60" s="17" t="s">
+      <c r="P60" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q60" s="6">
@@ -5598,7 +5577,7 @@
       <c r="O61" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P61" s="17" t="s">
+      <c r="P61" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q61" s="6">
@@ -5649,7 +5628,7 @@
       <c r="O62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="17" t="s">
+      <c r="P62" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q62" s="6">
@@ -5700,7 +5679,7 @@
       <c r="O63" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P63" s="17" t="s">
+      <c r="P63" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="6">
@@ -5751,7 +5730,7 @@
       <c r="O64" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P64" s="17" t="s">
+      <c r="P64" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q64" s="6">
@@ -5802,7 +5781,7 @@
       <c r="O65" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P65" s="17" t="s">
+      <c r="P65" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q65" s="6">
@@ -5855,7 +5834,7 @@
       <c r="O66" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P66" s="17" t="s">
+      <c r="P66" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q66" s="6">
@@ -5908,7 +5887,7 @@
       <c r="O67" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P67" s="17" t="s">
+      <c r="P67" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q67" s="6">
@@ -5961,7 +5940,7 @@
       <c r="O68" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P68" s="17" t="s">
+      <c r="P68" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q68" s="6">
@@ -6014,7 +5993,7 @@
       <c r="O69" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P69" s="17" t="s">
+      <c r="P69" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q69" s="6">
@@ -6067,7 +6046,7 @@
       <c r="O70" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P70" s="17" t="s">
+      <c r="P70" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q70" s="6">
@@ -6120,7 +6099,7 @@
       <c r="O71" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="17" t="s">
+      <c r="P71" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q71" s="6">
@@ -6173,7 +6152,7 @@
       <c r="O72" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P72" s="17" t="s">
+      <c r="P72" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q72" s="6">
@@ -6226,7 +6205,7 @@
       <c r="O73" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P73" s="17" t="s">
+      <c r="P73" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q73" s="6">
@@ -6279,7 +6258,7 @@
       <c r="O74" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P74" s="17" t="s">
+      <c r="P74" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q74" s="6">
@@ -6332,7 +6311,7 @@
       <c r="O75" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P75" s="17" t="s">
+      <c r="P75" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q75" s="6">
@@ -6385,7 +6364,7 @@
       <c r="O76" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="17" t="s">
+      <c r="P76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q76" s="6">
@@ -6438,7 +6417,7 @@
       <c r="O77" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P77" s="17" t="s">
+      <c r="P77" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q77" s="6">
@@ -6491,7 +6470,7 @@
       <c r="O78" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P78" s="17" t="s">
+      <c r="P78" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q78" s="6">
@@ -6544,7 +6523,7 @@
       <c r="O79" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P79" s="17" t="s">
+      <c r="P79" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q79" s="6">
@@ -6597,7 +6576,7 @@
       <c r="O80" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P80" s="17" t="s">
+      <c r="P80" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q80" s="6">
@@ -6650,7 +6629,7 @@
       <c r="O81" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P81" s="17" t="s">
+      <c r="P81" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="6">
@@ -6703,7 +6682,7 @@
       <c r="O82" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P82" s="17" t="s">
+      <c r="P82" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q82" s="6">
@@ -6756,7 +6735,7 @@
       <c r="O83" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P83" s="17" t="s">
+      <c r="P83" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q83" s="6">
@@ -6809,7 +6788,7 @@
       <c r="O84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P84" s="17" t="s">
+      <c r="P84" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q84" s="6">
@@ -6862,7 +6841,7 @@
       <c r="O85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P85" s="17" t="s">
+      <c r="P85" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q85" s="6">
@@ -6915,7 +6894,7 @@
       <c r="O86" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P86" s="17" t="s">
+      <c r="P86" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="6">
@@ -6968,7 +6947,7 @@
       <c r="O87" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P87" s="17" t="s">
+      <c r="P87" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q87" s="6">
@@ -7021,7 +7000,7 @@
       <c r="O88" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P88" s="17" t="s">
+      <c r="P88" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q88" s="6">
@@ -7072,7 +7051,7 @@
       <c r="O89" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P89" s="17" t="s">
+      <c r="P89" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q89" s="6">
@@ -7123,7 +7102,7 @@
       <c r="O90" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P90" s="17" t="s">
+      <c r="P90" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q90" s="6">
@@ -7174,7 +7153,7 @@
       <c r="O91" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P91" s="17" t="s">
+      <c r="P91" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q91" s="6">
@@ -7225,7 +7204,7 @@
       <c r="O92" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P92" s="17" t="s">
+      <c r="P92" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q92" s="6">
@@ -7276,7 +7255,7 @@
       <c r="O93" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P93" s="17" t="s">
+      <c r="P93" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q93" s="6">
@@ -7656,7 +7635,7 @@
       <c r="A101" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -7692,7 +7671,7 @@
       <c r="M101" s="10">
         <v>4</v>
       </c>
-      <c r="N101" s="15" t="s">
+      <c r="N101" s="14" t="s">
         <v>63</v>
       </c>
       <c r="O101" s="10" t="s">
@@ -7709,7 +7688,7 @@
       <c r="A102" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -7758,7 +7737,7 @@
       <c r="A103" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -7811,7 +7790,7 @@
       <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -7864,7 +7843,7 @@
       <c r="A105" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -7917,7 +7896,7 @@
       <c r="A106" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -7970,7 +7949,7 @@
       <c r="A107" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -9539,7 +9518,7 @@
       <c r="A138" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -9588,7 +9567,7 @@
       <c r="A139" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -12547,7 +12526,7 @@
       <c r="A196" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C196" s="6" t="s">
@@ -12583,7 +12562,7 @@
       <c r="M196" s="10">
         <v>4</v>
       </c>
-      <c r="N196" s="15" t="s">
+      <c r="N196" s="14" t="s">
         <v>63</v>
       </c>
       <c r="O196" s="10" t="s">
@@ -14142,7 +14121,7 @@
       <c r="A227" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C227" s="6" t="s">
@@ -14178,7 +14157,7 @@
       <c r="M227" s="10">
         <v>4</v>
       </c>
-      <c r="N227" s="15" t="s">
+      <c r="N227" s="14" t="s">
         <v>63</v>
       </c>
       <c r="O227" s="10" t="s">
@@ -14195,7 +14174,7 @@
       <c r="A228" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C228" s="6" t="s">
@@ -14244,7 +14223,7 @@
       <c r="A229" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C229" s="6" t="s">
@@ -14297,7 +14276,7 @@
       <c r="A230" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B230" s="14" t="s">
+      <c r="B230" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C230" s="6" t="s">
@@ -14350,7 +14329,7 @@
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B231" s="14" t="s">
+      <c r="B231" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C231" s="6" t="s">
@@ -14403,7 +14382,7 @@
       <c r="A232" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B232" s="14" t="s">
+      <c r="B232" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C232" s="6" t="s">
@@ -17599,7 +17578,7 @@
       <c r="O294" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P294" s="17" t="s">
+      <c r="P294" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q294" s="6">
@@ -17652,7 +17631,7 @@
       <c r="O295" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P295" s="17" t="s">
+      <c r="P295" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q295" s="6">
@@ -17705,7 +17684,7 @@
       <c r="O296" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P296" s="17" t="s">
+      <c r="P296" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q296" s="6">
@@ -17758,7 +17737,7 @@
       <c r="O297" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P297" s="17" t="s">
+      <c r="P297" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q297" s="6">
@@ -17811,7 +17790,7 @@
       <c r="O298" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P298" s="17" t="s">
+      <c r="P298" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q298" s="6">
@@ -17864,7 +17843,7 @@
       <c r="O299" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P299" s="17" t="s">
+      <c r="P299" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q299" s="6">
@@ -17915,7 +17894,7 @@
       <c r="O300" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P300" s="17" t="s">
+      <c r="P300" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q300" s="6">
@@ -17926,7 +17905,7 @@
       <c r="A301" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C301" s="6" t="s">
@@ -17962,13 +17941,13 @@
       <c r="M301" s="10">
         <v>4</v>
       </c>
-      <c r="N301" s="15" t="s">
+      <c r="N301" s="14" t="s">
         <v>63</v>
       </c>
       <c r="O301" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P301" s="17" t="s">
+      <c r="P301" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q301" s="6">
@@ -17979,7 +17958,7 @@
       <c r="A302" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B302" s="14" t="s">
+      <c r="B302" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C302" s="6" t="s">
@@ -18017,7 +17996,7 @@
       <c r="O302" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P302" s="17" t="s">
+      <c r="P302" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q302" s="6">
@@ -18028,7 +18007,7 @@
       <c r="A303" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B303" s="14" t="s">
+      <c r="B303" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C303" s="6" t="s">
@@ -18070,7 +18049,7 @@
       <c r="O303" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P303" s="17" t="s">
+      <c r="P303" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q303" s="6">
@@ -18081,7 +18060,7 @@
       <c r="A304" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="B304" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C304" s="6" t="s">
@@ -18123,7 +18102,7 @@
       <c r="O304" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P304" s="17" t="s">
+      <c r="P304" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q304" s="6">
@@ -18134,7 +18113,7 @@
       <c r="A305" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B305" s="14" t="s">
+      <c r="B305" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C305" s="6" t="s">
@@ -18176,7 +18155,7 @@
       <c r="O305" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P305" s="17" t="s">
+      <c r="P305" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q305" s="6">
@@ -18187,7 +18166,7 @@
       <c r="A306" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B306" s="14" t="s">
+      <c r="B306" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C306" s="6" t="s">
@@ -18229,7 +18208,7 @@
       <c r="O306" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P306" s="17" t="s">
+      <c r="P306" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q306" s="6">
@@ -18240,7 +18219,7 @@
       <c r="A307" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C307" s="6" t="s">
@@ -18282,7 +18261,7 @@
       <c r="O307" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P307" s="17" t="s">
+      <c r="P307" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q307" s="6">
@@ -18333,7 +18312,7 @@
       <c r="O308" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P308" s="17" t="s">
+      <c r="P308" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q308" s="6">
@@ -18382,7 +18361,7 @@
       <c r="O309" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P309" s="17" t="s">
+      <c r="P309" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q309" s="6">
@@ -18431,7 +18410,7 @@
       <c r="O310" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P310" s="17" t="s">
+      <c r="P310" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q310" s="6">
@@ -18480,7 +18459,7 @@
       <c r="O311" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P311" s="17" t="s">
+      <c r="P311" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q311" s="6">
@@ -18531,7 +18510,7 @@
       <c r="O312" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P312" s="17" t="s">
+      <c r="P312" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q312" s="6">
@@ -18582,7 +18561,7 @@
       <c r="O313" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P313" s="17" t="s">
+      <c r="P313" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q313" s="6">
@@ -18633,7 +18612,7 @@
       <c r="O314" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P314" s="17" t="s">
+      <c r="P314" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q314" s="6">
@@ -18684,7 +18663,7 @@
       <c r="O315" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P315" s="17" t="s">
+      <c r="P315" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q315" s="6">
@@ -18735,7 +18714,7 @@
       <c r="O316" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P316" s="17" t="s">
+      <c r="P316" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q316" s="6">
@@ -18784,7 +18763,7 @@
       <c r="O317" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P317" s="17" t="s">
+      <c r="P317" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q317" s="6">
@@ -18833,7 +18812,7 @@
       <c r="O318" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P318" s="17" t="s">
+      <c r="P318" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q318" s="6">
@@ -18884,7 +18863,7 @@
       <c r="O319" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P319" s="17" t="s">
+      <c r="P319" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q319" s="6">
@@ -18935,7 +18914,7 @@
       <c r="O320" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P320" s="17" t="s">
+      <c r="P320" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q320" s="6">
@@ -18986,7 +18965,7 @@
       <c r="O321" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P321" s="17" t="s">
+      <c r="P321" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q321" s="6">
@@ -19037,7 +19016,7 @@
       <c r="O322" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P322" s="17" t="s">
+      <c r="P322" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q322" s="6">
@@ -19088,7 +19067,7 @@
       <c r="O323" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P323" s="17" t="s">
+      <c r="P323" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q323" s="6">
@@ -19139,7 +19118,7 @@
       <c r="O324" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P324" s="17" t="s">
+      <c r="P324" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q324" s="6">
@@ -19192,7 +19171,7 @@
       <c r="O325" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P325" s="17" t="s">
+      <c r="P325" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q325" s="6">
@@ -19243,7 +19222,7 @@
       <c r="O326" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P326" s="17" t="s">
+      <c r="P326" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q326" s="6">
@@ -19294,7 +19273,7 @@
       <c r="O327" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P327" s="17" t="s">
+      <c r="P327" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q327" s="6">
@@ -19345,7 +19324,7 @@
       <c r="O328" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P328" s="17" t="s">
+      <c r="P328" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q328" s="6">
@@ -19396,7 +19375,7 @@
       <c r="O329" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P329" s="17" t="s">
+      <c r="P329" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q329" s="6">
@@ -19447,7 +19426,7 @@
       <c r="O330" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P330" s="17" t="s">
+      <c r="P330" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q330" s="6">
@@ -19498,7 +19477,7 @@
       <c r="O331" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P331" s="17" t="s">
+      <c r="P331" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q331" s="6">
@@ -19547,7 +19526,7 @@
       <c r="O332" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P332" s="17" t="s">
+      <c r="P332" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q332" s="6">
@@ -19596,7 +19575,7 @@
       <c r="O333" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P333" s="17" t="s">
+      <c r="P333" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q333" s="6">
@@ -19645,7 +19624,7 @@
       <c r="O334" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P334" s="17" t="s">
+      <c r="P334" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q334" s="6">
@@ -19696,7 +19675,7 @@
       <c r="O335" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P335" s="17" t="s">
+      <c r="P335" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q335" s="6">
@@ -19747,7 +19726,7 @@
       <c r="O336" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P336" s="17" t="s">
+      <c r="P336" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q336" s="6">
@@ -19798,7 +19777,7 @@
       <c r="O337" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P337" s="17" t="s">
+      <c r="P337" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q337" s="6">
@@ -19849,7 +19828,7 @@
       <c r="O338" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P338" s="17" t="s">
+      <c r="P338" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q338" s="6">
@@ -19900,7 +19879,7 @@
       <c r="O339" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P339" s="17" t="s">
+      <c r="P339" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q339" s="6">
@@ -19951,7 +19930,7 @@
       <c r="O340" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P340" s="17" t="s">
+      <c r="P340" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q340" s="6">
@@ -20002,7 +19981,7 @@
       <c r="O341" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P341" s="17" t="s">
+      <c r="P341" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q341" s="6">
@@ -20053,7 +20032,7 @@
       <c r="O342" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P342" s="17" t="s">
+      <c r="P342" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q342" s="6">
@@ -20104,7 +20083,7 @@
       <c r="O343" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P343" s="17" t="s">
+      <c r="P343" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q343" s="6">
@@ -20155,7 +20134,7 @@
       <c r="O344" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P344" s="17" t="s">
+      <c r="P344" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q344" s="6">
@@ -20206,7 +20185,7 @@
       <c r="O345" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P345" s="17" t="s">
+      <c r="P345" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q345" s="6">
@@ -20257,7 +20236,7 @@
       <c r="O346" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P346" s="17" t="s">
+      <c r="P346" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q346" s="6">
@@ -20306,7 +20285,7 @@
       <c r="O347" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P347" s="17" t="s">
+      <c r="P347" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q347" s="6">
@@ -20357,7 +20336,7 @@
       <c r="O348" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P348" s="17" t="s">
+      <c r="P348" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q348" s="6">
@@ -20408,7 +20387,7 @@
       <c r="O349" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P349" s="17" t="s">
+      <c r="P349" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q349" s="6">
@@ -20459,7 +20438,7 @@
       <c r="O350" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="P350" s="17" t="s">
+      <c r="P350" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q350" s="6">
@@ -20510,7 +20489,7 @@
       <c r="O351" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="P351" s="17" t="s">
+      <c r="P351" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q351" s="6">
@@ -20561,7 +20540,7 @@
       <c r="O352" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P352" s="17" t="s">
+      <c r="P352" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q352" s="6">
@@ -20612,7 +20591,7 @@
       <c r="O353" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P353" s="17" t="s">
+      <c r="P353" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q353" s="6">
@@ -20663,7 +20642,7 @@
       <c r="O354" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P354" s="17" t="s">
+      <c r="P354" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q354" s="6">
@@ -20714,7 +20693,7 @@
       <c r="O355" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P355" s="17" t="s">
+      <c r="P355" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q355" s="6">
@@ -20765,7 +20744,7 @@
       <c r="O356" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P356" s="17" t="s">
+      <c r="P356" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q356" s="6">
@@ -20816,7 +20795,7 @@
       <c r="O357" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P357" s="17" t="s">
+      <c r="P357" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q357" s="6">
@@ -20867,7 +20846,7 @@
       <c r="O358" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P358" s="17" t="s">
+      <c r="P358" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q358" s="6">
@@ -20920,7 +20899,7 @@
       <c r="O359" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P359" s="17" t="s">
+      <c r="P359" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q359" s="6">
@@ -20973,7 +20952,7 @@
       <c r="O360" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P360" s="17" t="s">
+      <c r="P360" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q360" s="6">
@@ -21026,7 +21005,7 @@
       <c r="O361" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P361" s="17" t="s">
+      <c r="P361" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q361" s="6">
@@ -21079,7 +21058,7 @@
       <c r="O362" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P362" s="17" t="s">
+      <c r="P362" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q362" s="6">
@@ -21132,7 +21111,7 @@
       <c r="O363" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P363" s="17" t="s">
+      <c r="P363" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q363" s="6">
@@ -21185,7 +21164,7 @@
       <c r="O364" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P364" s="17" t="s">
+      <c r="P364" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q364" s="6">
@@ -21238,7 +21217,7 @@
       <c r="O365" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P365" s="17" t="s">
+      <c r="P365" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q365" s="6">
@@ -21291,7 +21270,7 @@
       <c r="O366" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P366" s="17" t="s">
+      <c r="P366" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q366" s="6">
@@ -21344,7 +21323,7 @@
       <c r="O367" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P367" s="17" t="s">
+      <c r="P367" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q367" s="6">
@@ -21397,7 +21376,7 @@
       <c r="O368" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P368" s="17" t="s">
+      <c r="P368" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q368" s="6">
@@ -21448,7 +21427,7 @@
       <c r="O369" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P369" s="17" t="s">
+      <c r="P369" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q369" s="6">
@@ -21499,7 +21478,7 @@
       <c r="O370" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P370" s="17" t="s">
+      <c r="P370" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q370" s="6">
@@ -21550,7 +21529,7 @@
       <c r="O371" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P371" s="17" t="s">
+      <c r="P371" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q371" s="6">
@@ -21601,7 +21580,7 @@
       <c r="O372" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P372" s="17" t="s">
+      <c r="P372" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q372" s="6">
@@ -21652,7 +21631,7 @@
       <c r="O373" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P373" s="17" t="s">
+      <c r="P373" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q373" s="6">
@@ -21716,10 +21695,10 @@
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -22902,7 +22881,7 @@
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -22949,7 +22928,7 @@
       <c r="A28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -22996,7 +22975,7 @@
       <c r="A29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -23043,7 +23022,7 @@
       <c r="A30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -25064,7 +25043,7 @@
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -25111,7 +25090,7 @@
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -25158,7 +25137,7 @@
       <c r="A75" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -26427,7 +26406,7 @@
       <c r="A102" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -26474,7 +26453,7 @@
       <c r="A103" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -26521,7 +26500,7 @@
       <c r="A104" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -27085,7 +27064,7 @@
       <c r="A116" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -27132,7 +27111,7 @@
       <c r="A117" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -27826,7 +27805,7 @@
       <c r="M131" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N131" s="17" t="s">
+      <c r="N131" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O131" s="6">
@@ -27873,7 +27852,7 @@
       <c r="M132" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N132" s="17" t="s">
+      <c r="N132" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O132" s="6">
@@ -27920,7 +27899,7 @@
       <c r="M133" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N133" s="17" t="s">
+      <c r="N133" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O133" s="6">
@@ -27967,7 +27946,7 @@
       <c r="M134" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N134" s="17" t="s">
+      <c r="N134" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O134" s="6">
@@ -28014,7 +27993,7 @@
       <c r="M135" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N135" s="17" t="s">
+      <c r="N135" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O135" s="6">
@@ -28061,7 +28040,7 @@
       <c r="M136" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N136" s="17" t="s">
+      <c r="N136" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O136" s="6">
@@ -28108,7 +28087,7 @@
       <c r="M137" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="N137" s="17" t="s">
+      <c r="N137" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O137" s="6">
@@ -28155,7 +28134,7 @@
       <c r="M138" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="N138" s="17" t="s">
+      <c r="N138" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O138" s="6">
@@ -28202,7 +28181,7 @@
       <c r="M139" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="N139" s="17" t="s">
+      <c r="N139" s="16" t="s">
         <v>298</v>
       </c>
       <c r="O139" s="6">
@@ -28636,7 +28615,7 @@
       <c r="A149" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -28683,7 +28662,7 @@
       <c r="A150" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C150" s="6" t="s">
@@ -33680,7 +33659,7 @@
       <c r="P1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -33747,10 +33726,10 @@
       <c r="C3" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>112.520724</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>4.021685</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -33796,10 +33775,10 @@
       <c r="C4" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>-81.513562</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>-0.715091</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -33845,10 +33824,10 @@
       <c r="C5" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>-49.642223</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>-51.124213</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -33894,10 +33873,10 @@
       <c r="C6" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>88.853425</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>-8.486199</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -35446,7 +35425,7 @@
       <c r="O36" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P36" s="17" t="s">
+      <c r="P36" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q36" s="6">
@@ -35499,7 +35478,7 @@
       <c r="O37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="17" t="s">
+      <c r="P37" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q37" s="6">
@@ -35550,7 +35529,7 @@
       <c r="O38" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P38" s="17" t="s">
+      <c r="P38" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q38" s="6">
@@ -35567,10 +35546,10 @@
       <c r="C39" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="15">
         <v>112.520724</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="15">
         <v>4.021685</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -35599,7 +35578,7 @@
       <c r="O39" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P39" s="17" t="s">
+      <c r="P39" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q39" s="6">
@@ -35616,10 +35595,10 @@
       <c r="C40" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>-81.513562</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>-0.715091</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -35648,7 +35627,7 @@
       <c r="O40" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P40" s="17" t="s">
+      <c r="P40" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q40" s="6">
@@ -35665,10 +35644,10 @@
       <c r="C41" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <v>-49.642223</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>-51.124213</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -35697,7 +35676,7 @@
       <c r="O41" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P41" s="17" t="s">
+      <c r="P41" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q41" s="6">
@@ -35714,10 +35693,10 @@
       <c r="C42" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <v>88.853425</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>-8.486199</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -35746,7 +35725,7 @@
       <c r="O42" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P42" s="17" t="s">
+      <c r="P42" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q42" s="6">
@@ -35797,7 +35776,7 @@
       <c r="O43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P43" s="17" t="s">
+      <c r="P43" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q43" s="6">
@@ -35808,7 +35787,7 @@
       <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -35846,7 +35825,7 @@
       <c r="O44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="P44" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q44" s="6">
@@ -35857,7 +35836,7 @@
       <c r="A45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -35895,7 +35874,7 @@
       <c r="O45" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P45" s="17" t="s">
+      <c r="P45" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q45" s="6">
@@ -35906,7 +35885,7 @@
       <c r="A46" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -35948,7 +35927,7 @@
       <c r="O46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P46" s="17" t="s">
+      <c r="P46" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q46" s="6">
@@ -35959,7 +35938,7 @@
       <c r="A47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -36001,7 +35980,7 @@
       <c r="O47" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P47" s="17" t="s">
+      <c r="P47" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q47" s="6">
@@ -36012,7 +35991,7 @@
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -36054,7 +36033,7 @@
       <c r="O48" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P48" s="17" t="s">
+      <c r="P48" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q48" s="6">
@@ -36065,7 +36044,7 @@
       <c r="A49" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -36107,7 +36086,7 @@
       <c r="O49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P49" s="17" t="s">
+      <c r="P49" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q49" s="6">
@@ -36118,7 +36097,7 @@
       <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -36160,7 +36139,7 @@
       <c r="O50" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P50" s="17" t="s">
+      <c r="P50" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q50" s="6">
@@ -36209,7 +36188,7 @@
       <c r="O51" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P51" s="17" t="s">
+      <c r="P51" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q51" s="6">
@@ -36258,7 +36237,7 @@
       <c r="O52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P52" s="17" t="s">
+      <c r="P52" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q52" s="6">
@@ -36307,7 +36286,7 @@
       <c r="O53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P53" s="17" t="s">
+      <c r="P53" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q53" s="6">
@@ -36356,7 +36335,7 @@
       <c r="O54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P54" s="17" t="s">
+      <c r="P54" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q54" s="6">
@@ -36405,7 +36384,7 @@
       <c r="O55" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P55" s="17" t="s">
+      <c r="P55" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q55" s="6">
@@ -36456,7 +36435,7 @@
       <c r="O56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P56" s="17" t="s">
+      <c r="P56" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q56" s="6">
@@ -36507,7 +36486,7 @@
       <c r="O57" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="17" t="s">
+      <c r="P57" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q57" s="6">
@@ -36558,7 +36537,7 @@
       <c r="O58" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="17" t="s">
+      <c r="P58" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q58" s="6">
@@ -36609,7 +36588,7 @@
       <c r="O59" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P59" s="17" t="s">
+      <c r="P59" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q59" s="6">
@@ -36658,7 +36637,7 @@
       <c r="O60" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P60" s="17" t="s">
+      <c r="P60" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q60" s="6">
@@ -36707,7 +36686,7 @@
       <c r="O61" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P61" s="17" t="s">
+      <c r="P61" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q61" s="6">
@@ -36756,7 +36735,7 @@
       <c r="O62" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P62" s="17" t="s">
+      <c r="P62" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q62" s="6">
@@ -36807,7 +36786,7 @@
       <c r="O63" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P63" s="17" t="s">
+      <c r="P63" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q63" s="6">
@@ -36858,7 +36837,7 @@
       <c r="O64" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P64" s="17" t="s">
+      <c r="P64" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q64" s="6">
@@ -36909,7 +36888,7 @@
       <c r="O65" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P65" s="17" t="s">
+      <c r="P65" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q65" s="6">
@@ -36960,7 +36939,7 @@
       <c r="O66" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P66" s="17" t="s">
+      <c r="P66" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q66" s="6">
@@ -37011,7 +36990,7 @@
       <c r="O67" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P67" s="17" t="s">
+      <c r="P67" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q67" s="6">
@@ -37062,7 +37041,7 @@
       <c r="O68" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P68" s="17" t="s">
+      <c r="P68" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q68" s="6">
@@ -37113,7 +37092,7 @@
       <c r="O69" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P69" s="17" t="s">
+      <c r="P69" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q69" s="6">
@@ -37164,7 +37143,7 @@
       <c r="O70" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P70" s="17" t="s">
+      <c r="P70" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q70" s="6">
@@ -37213,7 +37192,7 @@
       <c r="O71" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="17" t="s">
+      <c r="P71" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q71" s="6">
@@ -37264,7 +37243,7 @@
       <c r="O72" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P72" s="17" t="s">
+      <c r="P72" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q72" s="6">
@@ -37315,7 +37294,7 @@
       <c r="O73" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P73" s="17" t="s">
+      <c r="P73" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q73" s="6">
@@ -37366,7 +37345,7 @@
       <c r="O74" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P74" s="17" t="s">
+      <c r="P74" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q74" s="6">
@@ -37417,7 +37396,7 @@
       <c r="O75" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P75" s="17" t="s">
+      <c r="P75" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q75" s="6">
@@ -37466,7 +37445,7 @@
       <c r="O76" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="17" t="s">
+      <c r="P76" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q76" s="6">
@@ -37517,7 +37496,7 @@
       <c r="O77" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P77" s="17" t="s">
+      <c r="P77" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q77" s="6">
@@ -37568,7 +37547,7 @@
       <c r="O78" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P78" s="17" t="s">
+      <c r="P78" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q78" s="6">
@@ -37619,7 +37598,7 @@
       <c r="O79" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P79" s="17" t="s">
+      <c r="P79" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q79" s="6">
@@ -37670,7 +37649,7 @@
       <c r="O80" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P80" s="17" t="s">
+      <c r="P80" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q80" s="6">
@@ -37721,7 +37700,7 @@
       <c r="O81" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P81" s="17" t="s">
+      <c r="P81" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q81" s="6">
@@ -37772,7 +37751,7 @@
       <c r="O82" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P82" s="17" t="s">
+      <c r="P82" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q82" s="6">
@@ -37823,7 +37802,7 @@
       <c r="O83" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P83" s="17" t="s">
+      <c r="P83" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q83" s="6">
@@ -37874,7 +37853,7 @@
       <c r="O84" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P84" s="17" t="s">
+      <c r="P84" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q84" s="6">
@@ -37925,7 +37904,7 @@
       <c r="O85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P85" s="17" t="s">
+      <c r="P85" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q85" s="6">
@@ -37978,7 +37957,7 @@
       <c r="O86" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P86" s="17" t="s">
+      <c r="P86" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q86" s="6">
@@ -38031,7 +38010,7 @@
       <c r="O87" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P87" s="17" t="s">
+      <c r="P87" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q87" s="6">
@@ -38084,7 +38063,7 @@
       <c r="O88" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P88" s="17" t="s">
+      <c r="P88" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q88" s="6">
@@ -38137,7 +38116,7 @@
       <c r="O89" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P89" s="17" t="s">
+      <c r="P89" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q89" s="6">
@@ -38190,7 +38169,7 @@
       <c r="O90" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P90" s="17" t="s">
+      <c r="P90" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q90" s="6">
@@ -38243,7 +38222,7 @@
       <c r="O91" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P91" s="17" t="s">
+      <c r="P91" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q91" s="6">
@@ -38296,7 +38275,7 @@
       <c r="O92" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P92" s="17" t="s">
+      <c r="P92" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q92" s="6">
@@ -38347,7 +38326,7 @@
       <c r="O93" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P93" s="17" t="s">
+      <c r="P93" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q93" s="6">
@@ -38398,7 +38377,7 @@
       <c r="O94" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P94" s="17" t="s">
+      <c r="P94" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q94" s="6">
@@ -38449,7 +38428,7 @@
       <c r="O95" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P95" s="17" t="s">
+      <c r="P95" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q95" s="6">
@@ -38500,7 +38479,7 @@
       <c r="O96" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P96" s="17" t="s">
+      <c r="P96" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q96" s="6">
@@ -38551,7 +38530,7 @@
       <c r="O97" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P97" s="17" t="s">
+      <c r="P97" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q97" s="6">
@@ -38602,7 +38581,7 @@
       <c r="O98" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P98" s="17" t="s">
+      <c r="P98" s="16" t="s">
         <v>328</v>
       </c>
       <c r="Q98" s="6">
@@ -38655,7 +38634,7 @@
       <c r="O99" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P99" s="17" t="s">
+      <c r="P99" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q99" s="6">
@@ -38708,7 +38687,7 @@
       <c r="O100" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P100" s="17" t="s">
+      <c r="P100" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q100" s="6">
@@ -38761,7 +38740,7 @@
       <c r="O101" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P101" s="17" t="s">
+      <c r="P101" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q101" s="6">
@@ -38814,7 +38793,7 @@
       <c r="O102" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P102" s="17" t="s">
+      <c r="P102" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q102" s="6">
@@ -38825,7 +38804,7 @@
       <c r="A103" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -38861,7 +38840,7 @@
       </c>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
-      <c r="P103" s="17" t="s">
+      <c r="P103" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q103" s="6">
@@ -38912,7 +38891,7 @@
       <c r="O104" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P104" s="17" t="s">
+      <c r="P104" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q104" s="6">
@@ -38929,10 +38908,10 @@
       <c r="C105" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D105" s="15">
         <v>112.520724</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="15">
         <v>4.021685</v>
       </c>
       <c r="F105" s="9" t="s">
@@ -38961,7 +38940,7 @@
       <c r="O105" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P105" s="17" t="s">
+      <c r="P105" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q105" s="6">
@@ -38978,10 +38957,10 @@
       <c r="C106" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="15">
         <v>-81.513562</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="15">
         <v>-0.715091</v>
       </c>
       <c r="F106" s="9" t="s">
@@ -39010,7 +38989,7 @@
       <c r="O106" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P106" s="17" t="s">
+      <c r="P106" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q106" s="6">
@@ -39027,10 +39006,10 @@
       <c r="C107" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="15">
         <v>-49.642223</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E107" s="15">
         <v>-51.124213</v>
       </c>
       <c r="F107" s="9" t="s">
@@ -39059,7 +39038,7 @@
       <c r="O107" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P107" s="17" t="s">
+      <c r="P107" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q107" s="6">
@@ -39076,10 +39055,10 @@
       <c r="C108" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D108" s="15">
         <v>88.853425</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="15">
         <v>-8.486199</v>
       </c>
       <c r="F108" s="9" t="s">
@@ -39108,7 +39087,7 @@
       <c r="O108" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="P108" s="17" t="s">
+      <c r="P108" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q108" s="6">
@@ -39159,7 +39138,7 @@
       <c r="O109" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P109" s="17" t="s">
+      <c r="P109" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q109" s="6">
@@ -39170,7 +39149,7 @@
       <c r="A110" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -39208,7 +39187,7 @@
       <c r="O110" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P110" s="17" t="s">
+      <c r="P110" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q110" s="6">
@@ -39219,7 +39198,7 @@
       <c r="A111" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -39257,7 +39236,7 @@
       <c r="O111" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P111" s="17" t="s">
+      <c r="P111" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q111" s="6">
@@ -39268,7 +39247,7 @@
       <c r="A112" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C112" s="6" t="s">
@@ -39306,7 +39285,7 @@
       <c r="O112" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P112" s="17" t="s">
+      <c r="P112" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q112" s="6">
@@ -39317,7 +39296,7 @@
       <c r="A113" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -39359,7 +39338,7 @@
       <c r="O113" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P113" s="17" t="s">
+      <c r="P113" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q113" s="6">
@@ -39370,7 +39349,7 @@
       <c r="A114" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -39412,7 +39391,7 @@
       <c r="O114" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P114" s="17" t="s">
+      <c r="P114" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q114" s="6">
@@ -39423,7 +39402,7 @@
       <c r="A115" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -39465,7 +39444,7 @@
       <c r="O115" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P115" s="17" t="s">
+      <c r="P115" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q115" s="6">
@@ -39476,7 +39455,7 @@
       <c r="A116" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -39518,7 +39497,7 @@
       <c r="O116" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P116" s="17" t="s">
+      <c r="P116" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q116" s="6">
@@ -39529,7 +39508,7 @@
       <c r="A117" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -39571,7 +39550,7 @@
       <c r="O117" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P117" s="17" t="s">
+      <c r="P117" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q117" s="6">
@@ -39606,7 +39585,7 @@
       <c r="I118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J118" s="15">
+      <c r="J118" s="14">
         <v>2021</v>
       </c>
       <c r="K118" s="10" t="s">
@@ -39620,7 +39599,7 @@
       <c r="O118" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P118" s="17" t="s">
+      <c r="P118" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q118" s="6">
@@ -39655,7 +39634,7 @@
       <c r="I119" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J119" s="15">
+      <c r="J119" s="14">
         <v>2021</v>
       </c>
       <c r="K119" s="10" t="s">
@@ -39669,7 +39648,7 @@
       <c r="O119" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P119" s="17" t="s">
+      <c r="P119" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q119" s="6">
@@ -39718,7 +39697,7 @@
       <c r="O120" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P120" s="17" t="s">
+      <c r="P120" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q120" s="6">
@@ -39767,7 +39746,7 @@
       <c r="O121" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P121" s="17" t="s">
+      <c r="P121" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q121" s="6">
@@ -39816,7 +39795,7 @@
       <c r="O122" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P122" s="17" t="s">
+      <c r="P122" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q122" s="6">
@@ -39865,7 +39844,7 @@
       <c r="O123" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P123" s="17" t="s">
+      <c r="P123" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q123" s="6">
@@ -39914,7 +39893,7 @@
       <c r="O124" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P124" s="17" t="s">
+      <c r="P124" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q124" s="6">
@@ -39967,7 +39946,7 @@
       <c r="O125" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P125" s="17" t="s">
+      <c r="P125" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q125" s="6">
@@ -40018,7 +39997,7 @@
       <c r="O126" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P126" s="17" t="s">
+      <c r="P126" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q126" s="6">
@@ -40069,7 +40048,7 @@
       <c r="O127" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P127" s="17" t="s">
+      <c r="P127" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q127" s="6">
@@ -40120,7 +40099,7 @@
       <c r="O128" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P128" s="17" t="s">
+      <c r="P128" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q128" s="6">
@@ -40171,7 +40150,7 @@
       <c r="O129" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P129" s="17" t="s">
+      <c r="P129" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q129" s="6">
@@ -40222,7 +40201,7 @@
       <c r="O130" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P130" s="17" t="s">
+      <c r="P130" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q130" s="6">
@@ -40273,7 +40252,7 @@
       <c r="O131" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P131" s="17" t="s">
+      <c r="P131" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q131" s="6">
@@ -40324,7 +40303,7 @@
       <c r="O132" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P132" s="17" t="s">
+      <c r="P132" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q132" s="6">
@@ -40375,7 +40354,7 @@
       <c r="O133" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P133" s="17" t="s">
+      <c r="P133" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q133" s="6">
@@ -40426,7 +40405,7 @@
       <c r="O134" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P134" s="17" t="s">
+      <c r="P134" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q134" s="6">
@@ -40477,7 +40456,7 @@
       <c r="O135" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P135" s="17" t="s">
+      <c r="P135" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q135" s="6">
@@ -40528,7 +40507,7 @@
       <c r="O136" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P136" s="17" t="s">
+      <c r="P136" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q136" s="6">
@@ -40579,7 +40558,7 @@
       <c r="O137" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P137" s="17" t="s">
+      <c r="P137" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q137" s="6">
@@ -40630,7 +40609,7 @@
       <c r="O138" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P138" s="17" t="s">
+      <c r="P138" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q138" s="6">
@@ -40681,7 +40660,7 @@
       <c r="O139" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P139" s="17" t="s">
+      <c r="P139" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q139" s="6">
@@ -40730,7 +40709,7 @@
       <c r="O140" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P140" s="17" t="s">
+      <c r="P140" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q140" s="6">
@@ -40779,7 +40758,7 @@
       <c r="O141" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P141" s="17" t="s">
+      <c r="P141" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q141" s="6">
@@ -40828,7 +40807,7 @@
       <c r="O142" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P142" s="17" t="s">
+      <c r="P142" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q142" s="6">
@@ -40839,7 +40818,7 @@
       <c r="A143" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C143" s="6" t="s">
@@ -40877,7 +40856,7 @@
       <c r="O143" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P143" s="17" t="s">
+      <c r="P143" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q143" s="6">
@@ -40888,7 +40867,7 @@
       <c r="A144" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -40926,7 +40905,7 @@
       <c r="O144" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P144" s="17" t="s">
+      <c r="P144" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q144" s="6">
@@ -40977,7 +40956,7 @@
       <c r="O145" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P145" s="17" t="s">
+      <c r="P145" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q145" s="6">
@@ -41028,7 +41007,7 @@
       <c r="O146" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P146" s="17" t="s">
+      <c r="P146" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q146" s="6">
@@ -41079,7 +41058,7 @@
       <c r="O147" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P147" s="17" t="s">
+      <c r="P147" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q147" s="6">
@@ -41130,7 +41109,7 @@
       <c r="O148" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P148" s="17" t="s">
+      <c r="P148" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q148" s="6">
@@ -41181,7 +41160,7 @@
       <c r="O149" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P149" s="17" t="s">
+      <c r="P149" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q149" s="6">
@@ -41232,7 +41211,7 @@
       <c r="O150" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P150" s="17" t="s">
+      <c r="P150" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q150" s="6">
@@ -41283,7 +41262,7 @@
       <c r="O151" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P151" s="17" t="s">
+      <c r="P151" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q151" s="6">
@@ -41334,7 +41313,7 @@
       <c r="O152" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P152" s="17" t="s">
+      <c r="P152" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q152" s="6">
@@ -41385,7 +41364,7 @@
       <c r="O153" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P153" s="17" t="s">
+      <c r="P153" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q153" s="6">
@@ -41436,7 +41415,7 @@
       <c r="O154" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P154" s="17" t="s">
+      <c r="P154" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q154" s="6">
@@ -41487,7 +41466,7 @@
       <c r="O155" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P155" s="17" t="s">
+      <c r="P155" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q155" s="6">
@@ -41538,7 +41517,7 @@
       <c r="O156" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P156" s="17" t="s">
+      <c r="P156" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q156" s="6">
@@ -41589,7 +41568,7 @@
       <c r="O157" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P157" s="17" t="s">
+      <c r="P157" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q157" s="6">
@@ -41640,7 +41619,7 @@
       <c r="O158" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P158" s="17" t="s">
+      <c r="P158" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q158" s="6">
@@ -41691,7 +41670,7 @@
       <c r="O159" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P159" s="17" t="s">
+      <c r="P159" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q159" s="6">
@@ -41742,7 +41721,7 @@
       <c r="O160" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P160" s="17" t="s">
+      <c r="P160" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q160" s="6">
@@ -41793,7 +41772,7 @@
       <c r="O161" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P161" s="17" t="s">
+      <c r="P161" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q161" s="6">
@@ -41844,7 +41823,7 @@
       <c r="O162" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P162" s="17" t="s">
+      <c r="P162" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q162" s="6">
@@ -41893,7 +41872,7 @@
       <c r="O163" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P163" s="17" t="s">
+      <c r="P163" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q163" s="6">
@@ -41944,7 +41923,7 @@
       <c r="O164" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P164" s="17" t="s">
+      <c r="P164" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q164" s="6">
@@ -41995,7 +41974,7 @@
       <c r="O165" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P165" s="17" t="s">
+      <c r="P165" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q165" s="6">
@@ -42046,7 +42025,7 @@
       <c r="O166" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P166" s="17" t="s">
+      <c r="P166" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q166" s="6">
@@ -42097,7 +42076,7 @@
       <c r="O167" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P167" s="17" t="s">
+      <c r="P167" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q167" s="6">
@@ -42146,7 +42125,7 @@
       <c r="O168" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P168" s="17" t="s">
+      <c r="P168" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q168" s="6">
@@ -42197,7 +42176,7 @@
       <c r="O169" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P169" s="17" t="s">
+      <c r="P169" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q169" s="6">
@@ -42248,7 +42227,7 @@
       <c r="O170" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P170" s="17" t="s">
+      <c r="P170" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q170" s="6">
@@ -42299,7 +42278,7 @@
       <c r="O171" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P171" s="17" t="s">
+      <c r="P171" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q171" s="6">
@@ -42350,7 +42329,7 @@
       <c r="O172" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P172" s="17" t="s">
+      <c r="P172" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q172" s="6">
@@ -42401,7 +42380,7 @@
       <c r="O173" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P173" s="17" t="s">
+      <c r="P173" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q173" s="6">
@@ -42452,7 +42431,7 @@
       <c r="O174" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P174" s="17" t="s">
+      <c r="P174" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q174" s="6">
@@ -42503,7 +42482,7 @@
       <c r="O175" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P175" s="17" t="s">
+      <c r="P175" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q175" s="6">
@@ -42554,7 +42533,7 @@
       <c r="O176" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P176" s="17" t="s">
+      <c r="P176" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q176" s="6">
@@ -42605,7 +42584,7 @@
       <c r="O177" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P177" s="17" t="s">
+      <c r="P177" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q177" s="6">
@@ -42658,7 +42637,7 @@
       <c r="O178" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P178" s="17" t="s">
+      <c r="P178" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q178" s="6">
@@ -42711,7 +42690,7 @@
       <c r="O179" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P179" s="17" t="s">
+      <c r="P179" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q179" s="6">
@@ -42764,7 +42743,7 @@
       <c r="O180" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P180" s="17" t="s">
+      <c r="P180" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q180" s="6">
@@ -42817,7 +42796,7 @@
       <c r="O181" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P181" s="17" t="s">
+      <c r="P181" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q181" s="6">
@@ -42870,7 +42849,7 @@
       <c r="O182" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P182" s="17" t="s">
+      <c r="P182" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q182" s="6">
@@ -42923,7 +42902,7 @@
       <c r="O183" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P183" s="17" t="s">
+      <c r="P183" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q183" s="6">
@@ -42976,7 +42955,7 @@
       <c r="O184" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P184" s="17" t="s">
+      <c r="P184" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q184" s="6">
@@ -43029,7 +43008,7 @@
       <c r="O185" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P185" s="17" t="s">
+      <c r="P185" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q185" s="6">
@@ -43082,7 +43061,7 @@
       <c r="O186" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P186" s="17" t="s">
+      <c r="P186" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q186" s="6">
@@ -43135,7 +43114,7 @@
       <c r="O187" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P187" s="17" t="s">
+      <c r="P187" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q187" s="6">
@@ -43188,7 +43167,7 @@
       <c r="O188" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P188" s="17" t="s">
+      <c r="P188" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q188" s="6">
@@ -43241,7 +43220,7 @@
       <c r="O189" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P189" s="17" t="s">
+      <c r="P189" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q189" s="6">
@@ -43294,7 +43273,7 @@
       <c r="O190" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P190" s="17" t="s">
+      <c r="P190" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q190" s="6">
@@ -43347,7 +43326,7 @@
       <c r="O191" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P191" s="17" t="s">
+      <c r="P191" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q191" s="6">
@@ -43400,7 +43379,7 @@
       <c r="O192" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P192" s="17" t="s">
+      <c r="P192" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q192" s="6">
@@ -43453,7 +43432,7 @@
       <c r="O193" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P193" s="17" t="s">
+      <c r="P193" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q193" s="6">
@@ -43506,7 +43485,7 @@
       <c r="O194" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P194" s="17" t="s">
+      <c r="P194" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q194" s="6">
@@ -43559,7 +43538,7 @@
       <c r="O195" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P195" s="17" t="s">
+      <c r="P195" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q195" s="6">
@@ -43612,7 +43591,7 @@
       <c r="O196" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P196" s="17" t="s">
+      <c r="P196" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q196" s="6">
@@ -43665,7 +43644,7 @@
       <c r="O197" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P197" s="17" t="s">
+      <c r="P197" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q197" s="6">
@@ -43718,7 +43697,7 @@
       <c r="O198" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P198" s="17" t="s">
+      <c r="P198" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q198" s="6">
@@ -43771,7 +43750,7 @@
       <c r="O199" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P199" s="17" t="s">
+      <c r="P199" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q199" s="6">
@@ -43824,7 +43803,7 @@
       <c r="O200" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P200" s="17" t="s">
+      <c r="P200" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q200" s="6">
@@ -43877,7 +43856,7 @@
       <c r="O201" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P201" s="17" t="s">
+      <c r="P201" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q201" s="6">
@@ -43928,7 +43907,7 @@
       <c r="O202" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P202" s="17" t="s">
+      <c r="P202" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q202" s="6">
@@ -43979,7 +43958,7 @@
       <c r="O203" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P203" s="17" t="s">
+      <c r="P203" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q203" s="6">
@@ -44030,7 +44009,7 @@
       <c r="O204" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P204" s="17" t="s">
+      <c r="P204" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q204" s="6">
@@ -44081,7 +44060,7 @@
       <c r="O205" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P205" s="17" t="s">
+      <c r="P205" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q205" s="6">
@@ -44132,7 +44111,7 @@
       <c r="O206" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P206" s="17" t="s">
+      <c r="P206" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q206" s="6">
@@ -44183,7 +44162,7 @@
       <c r="O207" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P207" s="17" t="s">
+      <c r="P207" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q207" s="6">
@@ -44234,7 +44213,7 @@
       <c r="O208" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P208" s="17" t="s">
+      <c r="P208" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q208" s="6">
@@ -44285,7 +44264,7 @@
       <c r="O209" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P209" s="17" t="s">
+      <c r="P209" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q209" s="6">
@@ -44336,7 +44315,7 @@
       <c r="O210" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P210" s="17" t="s">
+      <c r="P210" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q210" s="6">
@@ -44387,7 +44366,7 @@
       <c r="O211" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="P211" s="17" t="s">
+      <c r="P211" s="16" t="s">
         <v>338</v>
       </c>
       <c r="Q211" s="6">
@@ -44404,10 +44383,10 @@
       <c r="C212" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D212" s="16">
+      <c r="D212" s="15">
         <v>112.520724</v>
       </c>
-      <c r="E212" s="16">
+      <c r="E212" s="15">
         <v>4.021685</v>
       </c>
       <c r="F212" s="9" t="s">
@@ -44453,10 +44432,10 @@
       <c r="C213" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D213" s="16">
+      <c r="D213" s="15">
         <v>-81.513562</v>
       </c>
-      <c r="E213" s="16">
+      <c r="E213" s="15">
         <v>-0.715091</v>
       </c>
       <c r="F213" s="9" t="s">
@@ -44502,10 +44481,10 @@
       <c r="C214" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D214" s="16">
+      <c r="D214" s="15">
         <v>-49.642223</v>
       </c>
-      <c r="E214" s="16">
+      <c r="E214" s="15">
         <v>-51.124213</v>
       </c>
       <c r="F214" s="9" t="s">
@@ -44551,10 +44530,10 @@
       <c r="C215" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D215" s="16">
+      <c r="D215" s="15">
         <v>88.853425</v>
       </c>
-      <c r="E215" s="16">
+      <c r="E215" s="15">
         <v>-8.486199</v>
       </c>
       <c r="F215" s="9" t="s">
@@ -44594,7 +44573,7 @@
       <c r="A216" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B216" s="14" t="s">
+      <c r="B216" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -44647,7 +44626,7 @@
       <c r="A217" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C217" s="6" t="s">
@@ -44700,7 +44679,7 @@
       <c r="A218" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C218" s="6" t="s">
@@ -44753,7 +44732,7 @@
       <c r="A219" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C219" s="6" t="s">
@@ -45752,7 +45731,7 @@
       <c r="O238" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P238" s="17" t="s">
+      <c r="P238" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q238" s="6">
@@ -45801,7 +45780,7 @@
       <c r="O239" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P239" s="17" t="s">
+      <c r="P239" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q239" s="6">
@@ -45850,7 +45829,7 @@
       <c r="O240" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P240" s="17" t="s">
+      <c r="P240" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q240" s="6">
@@ -45899,7 +45878,7 @@
       <c r="O241" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P241" s="17" t="s">
+      <c r="P241" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q241" s="6">
@@ -45948,7 +45927,7 @@
       <c r="O242" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P242" s="17" t="s">
+      <c r="P242" s="16" t="s">
         <v>263</v>
       </c>
       <c r="Q242" s="6">
@@ -51794,7 +51773,7 @@
       <c r="A125" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -51841,7 +51820,7 @@
       <c r="A126" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C126" s="6" t="s">
@@ -51888,7 +51867,7 @@
       <c r="A127" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -51935,7 +51914,7 @@
       <c r="A128" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -51982,7 +51961,7 @@
       <c r="A129" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -52029,7 +52008,7 @@
       <c r="A130" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -52076,7 +52055,7 @@
       <c r="A131" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C131" s="6" t="s">
@@ -52123,7 +52102,7 @@
       <c r="A132" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C132" s="6" t="s">
@@ -52194,7 +52173,7 @@
       <c r="I133" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J133" s="15">
+      <c r="J133" s="14">
         <v>2021</v>
       </c>
       <c r="K133" s="10" t="s">
@@ -52241,7 +52220,7 @@
       <c r="I134" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J134" s="15">
+      <c r="J134" s="14">
         <v>2021</v>
       </c>
       <c r="K134" s="10" t="s">
@@ -55738,7 +55717,7 @@
       <c r="A209" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C209" s="6" t="s">
@@ -55785,7 +55764,7 @@
       <c r="A210" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -55832,7 +55811,7 @@
       <c r="A211" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C211" s="6" t="s">
@@ -55879,7 +55858,7 @@
       <c r="A212" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -55926,7 +55905,7 @@
       <c r="A213" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B213" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C213" s="6" t="s">
@@ -55973,7 +55952,7 @@
       <c r="A214" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C214" s="6" t="s">
@@ -56020,7 +55999,7 @@
       <c r="A215" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C215" s="6" t="s">
@@ -56067,7 +56046,7 @@
       <c r="A216" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B216" s="14" t="s">
+      <c r="B216" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -56138,7 +56117,7 @@
       <c r="I217" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J217" s="15">
+      <c r="J217" s="14">
         <v>2021</v>
       </c>
       <c r="K217" s="10" t="s">
@@ -56185,7 +56164,7 @@
       <c r="I218" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J218" s="15">
+      <c r="J218" s="14">
         <v>2021</v>
       </c>
       <c r="K218" s="10" t="s">
@@ -59494,7 +59473,7 @@
       <c r="A289" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C289" s="6" t="s">
@@ -59541,7 +59520,7 @@
       <c r="A290" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B290" s="14" t="s">
+      <c r="B290" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C290" s="6" t="s">
@@ -59588,7 +59567,7 @@
       <c r="A291" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B291" s="14" t="s">
+      <c r="B291" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C291" s="6" t="s">
@@ -59635,7 +59614,7 @@
       <c r="A292" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C292" s="6" t="s">
@@ -59682,7 +59661,7 @@
       <c r="A293" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B293" s="14" t="s">
+      <c r="B293" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C293" s="6" t="s">
@@ -59729,7 +59708,7 @@
       <c r="A294" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B294" s="14" t="s">
+      <c r="B294" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C294" s="6" t="s">
@@ -59776,7 +59755,7 @@
       <c r="A295" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B295" s="14" t="s">
+      <c r="B295" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C295" s="6" t="s">
@@ -59823,7 +59802,7 @@
       <c r="A296" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C296" s="6" t="s">
@@ -59894,7 +59873,7 @@
       <c r="I297" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J297" s="15">
+      <c r="J297" s="14">
         <v>2021</v>
       </c>
       <c r="K297" s="10" t="s">
@@ -59941,7 +59920,7 @@
       <c r="I298" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J298" s="15">
+      <c r="J298" s="14">
         <v>2021</v>
       </c>
       <c r="K298" s="10" t="s">
